--- a/biology/Zoologie/Boops_boops/Boops_boops.xlsx
+++ b/biology/Zoologie/Boops_boops/Boops_boops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boops boops, communément appelée bogue, est une espèce de poissons marins de la famille des sparidés. La bogue est une espèce largement répandue aussi bien en Atlantique oriental qu'en Méditerranée. Elle présente un caractère semi démérsal et vit au-dessus du plateau continental sur tous les fonds jusqu'à 490 m ; elle est plus abondante dans les cent premiers mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Boops = bovin (avec des yeux de bovin) subs. inv[réf. nécessaire].
 </t>
